--- a/Scrape PHEI/2023-Desember/Bond-Data-29-Desember-2023.xlsx
+++ b/Scrape PHEI/2023-Desember/Bond-Data-29-Desember-2023.xlsx
@@ -613,26 +613,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PBS036</t>
+          <t>PBS032</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="D6" t="n">
-        <v>6.4993</v>
+        <v>6.5899</v>
       </c>
       <c r="E6" t="n">
-        <v>98.2787</v>
+        <v>96.0365</v>
       </c>
       <c r="F6" t="n">
-        <v>6.5153</v>
+        <v>6.6203</v>
       </c>
       <c r="G6" t="n">
-        <v>98.2517</v>
+        <v>95.9639</v>
       </c>
       <c r="H6" t="n">
-        <v>5.375</v>
+        <v>4.875</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -646,26 +646,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PBS003</t>
+          <t>PBS030</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.05</v>
+        <v>4.55</v>
       </c>
       <c r="D7" t="n">
-        <v>6.5524</v>
+        <v>6.4439</v>
       </c>
       <c r="E7" t="n">
-        <v>98.49250000000001</v>
+        <v>97.7847</v>
       </c>
       <c r="F7" t="n">
-        <v>6.5764</v>
+        <v>6.4507</v>
       </c>
       <c r="G7" t="n">
-        <v>98.4264</v>
+        <v>97.7573</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.875</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -679,26 +679,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PBS037</t>
+          <t>PBS004</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12.22</v>
+        <v>13.14</v>
       </c>
       <c r="D8" t="n">
-        <v>6.6916</v>
+        <v>6.7044</v>
       </c>
       <c r="E8" t="n">
-        <v>101.5</v>
+        <v>94.7676</v>
       </c>
       <c r="F8" t="n">
-        <v>6.755</v>
+        <v>6.7206</v>
       </c>
       <c r="G8" t="n">
-        <v>100.9733</v>
+        <v>94.6322</v>
       </c>
       <c r="H8" t="n">
-        <v>6.875</v>
+        <v>6.1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -712,26 +712,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PBS033</t>
+          <t>PBS038</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.48</v>
+        <v>25.98</v>
       </c>
       <c r="D9" t="n">
-        <v>6.7996</v>
+        <v>6.9015</v>
       </c>
       <c r="E9" t="n">
-        <v>99.41800000000001</v>
+        <v>99.6781</v>
       </c>
       <c r="F9" t="n">
-        <v>6.7948</v>
+        <v>6.908</v>
       </c>
       <c r="G9" t="n">
-        <v>99.47499999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>6.75</v>
+        <v>6.875</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
